--- a/data/negative_signals/Indirectly connected (A-X-B) - Tiotropium bromide - Bullous eruptions.xlsx
+++ b/data/negative_signals/Indirectly connected (A-X-B) - Tiotropium bromide - Bullous eruptions.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="86">
   <si>
     <t>pathWeight</t>
   </si>
@@ -164,10 +164,10 @@
     <t>tier12TripleInformation/9/predicateName</t>
   </si>
   <si>
-    <t>3780811</t>
-  </si>
-  <si>
-    <t>ba 679 br</t>
+    <t>3244307</t>
+  </si>
+  <si>
+    <t>tiotropium bromide</t>
   </si>
   <si>
     <t>Chemicals &amp; Drugs</t>
@@ -191,13 +191,25 @@
     <t>Disorders</t>
   </si>
   <si>
-    <t>159506662</t>
+    <t>119763642</t>
+  </si>
+  <si>
+    <t>is not administered to</t>
+  </si>
+  <si>
+    <t>58220902</t>
+  </si>
+  <si>
+    <t>is administered to</t>
+  </si>
+  <si>
+    <t>53071987</t>
   </si>
   <si>
     <t>treats</t>
   </si>
   <si>
-    <t>117459011</t>
+    <t>51266807</t>
   </si>
   <si>
     <t>is process of</t>
@@ -209,16 +221,55 @@
     <t>pharmaceutical preparations</t>
   </si>
   <si>
-    <t>159506550</t>
+    <t>89903399</t>
+  </si>
+  <si>
+    <t>coexists with</t>
+  </si>
+  <si>
+    <t>64510312</t>
   </si>
   <si>
     <t>is a</t>
   </si>
   <si>
-    <t>142812784</t>
+    <t>116913534</t>
+  </si>
+  <si>
+    <t>interacts with</t>
+  </si>
+  <si>
+    <t>76350720</t>
   </si>
   <si>
     <t>causes</t>
+  </si>
+  <si>
+    <t>5648228</t>
+  </si>
+  <si>
+    <t>therapeutic procedure</t>
+  </si>
+  <si>
+    <t>Procedures</t>
+  </si>
+  <si>
+    <t>61122555</t>
+  </si>
+  <si>
+    <t>uses</t>
+  </si>
+  <si>
+    <t>55053777</t>
+  </si>
+  <si>
+    <t>is compared with</t>
+  </si>
+  <si>
+    <t>128974761</t>
+  </si>
+  <si>
+    <t>66163822</t>
   </si>
 </sst>
 </file>
@@ -423,7 +474,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>42.0</v>
+        <v>48.0</v>
       </c>
       <c r="B2" t="s">
         <v>50</v>
@@ -463,11 +514,23 @@
       </c>
       <c r="N2" t="s">
         <v>62</v>
+      </c>
+      <c r="O2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>65</v>
+      </c>
+      <c r="R2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="B3" t="s">
         <v>50</v>
@@ -479,10 +542,10 @@
         <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G3" t="s">
         <v>52</v>
@@ -497,16 +560,84 @@
         <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="N3" t="s">
-        <v>68</v>
+        <v>72</v>
+      </c>
+      <c r="O3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>75</v>
+      </c>
+      <c r="R3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M4" t="s">
+        <v>82</v>
+      </c>
+      <c r="N4" t="s">
+        <v>83</v>
+      </c>
+      <c r="O4" t="s">
+        <v>84</v>
+      </c>
+      <c r="P4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R4" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
